--- a/data/lib/^HIST.xlsx
+++ b/data/lib/^HIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\PycharmProjects\algotrading\data\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DF8A0C-82F0-4D15-8694-9642AF344107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88832B1-A7DB-4C62-8897-39FE71D46376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2254,12 +2254,6 @@
     <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
   </si>
   <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
     <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
   </si>
   <si>
@@ -2399,6 +2393,12 @@
   </si>
   <si>
     <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KDP,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ON,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VICI,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WBD,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
   </si>
 </sst>
 </file>
@@ -2788,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="D309" sqref="D309"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="D266" sqref="D266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6380,7 +6380,7 @@
         <v>465</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>744</v>
+        <v>791</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -6394,7 +6394,7 @@
         <v>466</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>745</v>
+        <v>792</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -6408,7 +6408,7 @@
         <v>467</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -6422,7 +6422,7 @@
         <v>169</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -6436,7 +6436,7 @@
         <v>468</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -6450,7 +6450,7 @@
         <v>469</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -6461,7 +6461,7 @@
         <v>257</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -6472,7 +6472,7 @@
         <v>470</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -6486,7 +6486,7 @@
         <v>471</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -6500,7 +6500,7 @@
         <v>472</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -6514,7 +6514,7 @@
         <v>147</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -6528,7 +6528,7 @@
         <v>473</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -6542,7 +6542,7 @@
         <v>474</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -6556,7 +6556,7 @@
         <v>121</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -6570,7 +6570,7 @@
         <v>475</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -6584,7 +6584,7 @@
         <v>257</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -6598,7 +6598,7 @@
         <v>476</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -6609,7 +6609,7 @@
         <v>477</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -6620,7 +6620,7 @@
         <v>267</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -6631,7 +6631,7 @@
         <v>268</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -6642,7 +6642,7 @@
         <v>210</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -6667,7 +6667,7 @@
         <v>220</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -6678,7 +6678,7 @@
         <v>270</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -6689,7 +6689,7 @@
         <v>478</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -6700,7 +6700,7 @@
         <v>479</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -6711,7 +6711,7 @@
         <v>60</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -6722,7 +6722,7 @@
         <v>271</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -6733,7 +6733,7 @@
         <v>272</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -6744,7 +6744,7 @@
         <v>273</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -6755,7 +6755,7 @@
         <v>84</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -6766,7 +6766,7 @@
         <v>274</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -6777,7 +6777,7 @@
         <v>480</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -6788,7 +6788,7 @@
         <v>122</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -6799,7 +6799,7 @@
         <v>481</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -6810,7 +6810,7 @@
         <v>275</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -6821,7 +6821,7 @@
         <v>276</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -6832,7 +6832,7 @@
         <v>277</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -6846,7 +6846,7 @@
         <v>482</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -6860,7 +6860,7 @@
         <v>483</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -6874,7 +6874,7 @@
         <v>184</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -6888,7 +6888,7 @@
         <v>484</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -6899,7 +6899,7 @@
         <v>485</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -6910,7 +6910,7 @@
         <v>109</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -6921,7 +6921,7 @@
         <v>282</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -6935,7 +6935,7 @@
         <v>37</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -6949,7 +6949,7 @@
         <v>153</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -6960,7 +6960,7 @@
         <v>103</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -6974,7 +6974,7 @@
         <v>201</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>

--- a/data/lib/^HIST.xlsx
+++ b/data/lib/^HIST.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\PycharmProjects\algotrading\data\lib\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88832B1-A7DB-4C62-8897-39FE71D46376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -316,7 +310,7 @@
     <t>MHK</t>
   </si>
   <si>
-    <t>FB</t>
+    <t>META</t>
   </si>
   <si>
     <t>TSCO</t>
@@ -1759,656 +1753,656 @@
     <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
   </si>
   <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UDR,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UDR,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UDR,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UDR,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RAI,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RAI,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RAI,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHK,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WBD,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VICI,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WBD,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KDP,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VICI,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WBD,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KDP,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VICI,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WBD,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KDP,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ON,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VICI,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WBD,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FB,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UDR,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UDR,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UDR,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UDR,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RAI,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RAI,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RAI,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WBD,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VICI,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WBD,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KDP,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VICI,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WBD,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KDP,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VICI,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WBD,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KDP,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ON,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VICI,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WBD,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2437,31 +2431,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2508,7 +2486,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2540,27 +2518,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2592,24 +2552,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2785,4200 +2727,4193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="D266" sqref="D266"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
         <v>36501</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>36734</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>287</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>36865</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>36865</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>36865</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>289</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>36865</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>290</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>37889</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>291</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
         <v>38534</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>292</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
         <v>38870</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>39092</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
         <v>39171</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>294</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
         <v>39318</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>295</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>39351</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>296</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
         <v>39352</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
         <v>39356</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>297</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>39357</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>298</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
         <v>39381</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>299</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
         <v>39429</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>300</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
         <v>39436</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>301</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
         <v>39609</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
         <v>39703</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>302</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
         <v>39703</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>303</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <v>39707</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>304</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
         <v>39813</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>305</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
         <v>39875</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>306</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
         <v>39875</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>307</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
         <v>40084</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
         <v>40120</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>308</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
         <v>40165</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>309</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
         <v>40165</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
         <v>40165</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>311</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
         <v>40165</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>312</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
         <v>40235</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>313</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
         <v>40297</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>314</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
         <v>40357</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>315</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
         <v>40359</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>316</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
         <v>40373</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>317</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
         <v>40416</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>318</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
         <v>40499</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>319</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
         <v>40529</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>320</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
         <v>40529</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>321</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
         <v>40529</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
         <v>322</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
         <v>40529</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>323</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
         <v>40599</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
         <v>40602</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>324</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
         <v>40633</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>325</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
         <v>40634</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>326</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
         <v>40660</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
         <v>327</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
         <v>40695</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>328</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
         <v>40724</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" t="s">
         <v>329</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
         <v>40729</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>330</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
         <v>40809</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>331</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
         <v>40830</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>332</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
         <v>40847</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s">
         <v>333</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
         <v>40865</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>334</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
         <v>40889</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
         <v>40893</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
         <v>335</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
         <v>40893</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>336</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
         <v>40893</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s">
         <v>337</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
         <v>40897</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" t="s">
         <v>338</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
         <v>40908</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>339</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
         <v>40981</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" t="s">
         <v>278</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
         <v>41002</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" t="s">
         <v>340</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
         <v>41022</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" t="s">
         <v>341</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
         <v>41046</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s">
         <v>342</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
         <v>41050</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" t="s">
         <v>343</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
         <v>41065</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s">
         <v>344</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
         <v>41089</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" t="s">
         <v>345</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
         <v>41092</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" t="s">
         <v>346</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
         <v>41121</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" t="s">
         <v>347</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
         <v>41157</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" t="s">
         <v>348</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
         <v>41183</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" t="s">
         <v>349</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
         <v>41183</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s">
         <v>350</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
         <v>41184</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" t="s">
         <v>52</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
         <v>41192</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" t="s">
         <v>351</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
         <v>41246</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" t="s">
         <v>57</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
         <v>41254</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" t="s">
         <v>352</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
         <v>41264</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" t="s">
         <v>353</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
         <v>41274</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" t="s">
         <v>354</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
         <v>41320</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" t="s">
         <v>355</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
         <v>41394</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" t="s">
         <v>356</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
         <v>41402</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" t="s">
         <v>357</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
         <v>41417</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" t="s">
         <v>358</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
         <v>41431</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" t="s">
         <v>359</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
         <v>41446</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" t="s">
         <v>360</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
         <v>41453</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" t="s">
         <v>361</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
         <v>41463</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" t="s">
         <v>362</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
         <v>41527</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" t="s">
         <v>363</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
         <v>41537</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" t="s">
         <v>90</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" t="s">
         <v>179</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
         <v>41537</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" t="s">
         <v>364</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
         <v>41576</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" t="s">
         <v>365</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
         <v>41591</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" t="s">
         <v>366</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
         <v>41610</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" t="s">
         <v>367</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
         <v>41618</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" t="s">
         <v>95</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" t="s">
         <v>368</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
         <v>41631</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" t="s">
         <v>369</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
         <v>41631</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" t="s">
         <v>97</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
         <v>41631</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" t="s">
         <v>254</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
         <v>41663</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" t="s">
         <v>370</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
         <v>41719</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" t="s">
         <v>63</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
         <v>41731</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" t="s">
         <v>34</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
         <v>41732</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" t="s">
         <v>102</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
         <v>41760</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" t="s">
         <v>103</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" t="s">
         <v>371</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
         <v>41760</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" t="s">
         <v>372</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
         <v>41767</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" t="s">
         <v>105</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" t="s">
         <v>373</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
         <v>41810</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" t="s">
         <v>374</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
         <v>41821</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" t="s">
         <v>107</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" t="s">
         <v>375</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
         <v>41822</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" t="s">
         <v>108</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" t="s">
         <v>376</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
         <v>41857</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" t="s">
         <v>109</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
         <v>41869</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" t="s">
         <v>110</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" t="s">
         <v>377</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
         <v>41902</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" t="s">
         <v>111</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" t="s">
         <v>378</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
         <v>41902</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" t="s">
         <v>112</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" t="s">
         <v>379</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>41948</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" t="s">
         <v>113</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" t="s">
         <v>380</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>41978</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" t="s">
         <v>114</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" t="s">
         <v>381</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>42031</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" t="s">
         <v>382</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>42031</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" t="s">
         <v>48</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>42075</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" t="s">
         <v>117</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" t="s">
         <v>76</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>42081</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" t="s">
         <v>383</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>42086</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" t="s">
         <v>384</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>42086</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" t="s">
         <v>120</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" t="s">
         <v>385</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>42086</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" t="s">
         <v>121</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" t="s">
         <v>386</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>42086</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" t="s">
         <v>122</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" t="s">
         <v>387</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>42101</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" t="s">
         <v>123</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" t="s">
         <v>388</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>42166</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" t="s">
         <v>124</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" t="s">
         <v>23</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>42186</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" t="s">
         <v>125</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" t="s">
         <v>389</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>42186</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" t="s">
         <v>126</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" t="s">
         <v>39</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>42187</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" t="s">
         <v>127</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" t="s">
         <v>390</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>42191</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" t="s">
         <v>128</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" t="s">
         <v>14</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>42193</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" t="s">
         <v>129</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" t="s">
         <v>391</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>42205</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" t="s">
         <v>130</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" t="s">
         <v>392</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>42214</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" t="s">
         <v>131</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" t="s">
         <v>393</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>42244</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" t="s">
         <v>132</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" t="s">
         <v>394</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>42249</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" t="s">
         <v>133</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" t="s">
         <v>395</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>42265</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" t="s">
         <v>134</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>42265</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" t="s">
         <v>135</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>42265</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" t="s">
         <v>136</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>42284</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" t="s">
         <v>137</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" t="s">
         <v>47</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>42310</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" t="s">
         <v>138</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" t="s">
         <v>396</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>42326</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" t="s">
         <v>139</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" t="s">
         <v>397</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>42327</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" t="s">
         <v>140</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" t="s">
         <v>398</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>42339</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" t="s">
         <v>141</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" t="s">
         <v>399</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>42353</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" t="s">
         <v>134</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>42367</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" t="s">
         <v>142</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" t="s">
         <v>400</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>42374</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" t="s">
         <v>143</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" t="s">
         <v>65</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>42388</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" t="s">
         <v>144</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" t="s">
         <v>40</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>42401</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" t="s">
         <v>145</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" t="s">
         <v>401</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>42401</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" t="s">
         <v>146</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" t="s">
         <v>402</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>42422</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" t="s">
         <v>147</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" t="s">
         <v>403</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>42433</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" t="s">
         <v>148</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" t="s">
         <v>404</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>42436</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" t="s">
         <v>149</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" t="s">
         <v>100</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>42459</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" t="s">
         <v>150</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" t="s">
         <v>405</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>42459</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" t="s">
         <v>151</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" t="s">
         <v>72</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D152" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>42464</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" t="s">
         <v>152</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" t="s">
         <v>406</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>42468</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" t="s">
         <v>153</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>42478</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" t="s">
         <v>154</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" t="s">
         <v>407</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>42485</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" t="s">
         <v>21</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>42493</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" t="s">
         <v>156</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" t="s">
         <v>74</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>42503</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" t="s">
         <v>157</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" t="s">
         <v>408</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>42508</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" t="s">
         <v>158</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" t="s">
         <v>409</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>42513</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" t="s">
         <v>159</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" t="s">
         <v>30</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>42521</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" t="s">
         <v>160</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" t="s">
         <v>410</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>42524</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" t="s">
         <v>161</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" t="s">
         <v>126</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>42543</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" t="s">
         <v>162</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" t="s">
         <v>43</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>42552</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" t="s">
         <v>163</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" t="s">
         <v>58</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>42552</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" t="s">
         <v>164</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" t="s">
         <v>411</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>42556</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" t="s">
         <v>165</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" t="s">
         <v>127</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>42619</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" t="s">
         <v>166</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" t="s">
         <v>41</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>42621</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" t="s">
         <v>167</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" t="s">
         <v>412</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>42635</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" t="s">
         <v>168</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" t="s">
         <v>413</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>42643</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" t="s">
         <v>169</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" t="s">
         <v>414</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>42675</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" t="s">
         <v>170</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" t="s">
         <v>415</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>42706</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" t="s">
         <v>171</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" t="s">
         <v>27</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>42706</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" t="s">
         <v>416</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D173" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>42740</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" t="s">
         <v>173</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" t="s">
         <v>417</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="3">
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>42794</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" t="s">
         <v>174</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" t="s">
         <v>418</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>42795</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" t="s">
         <v>175</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" t="s">
         <v>419</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D176" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>42796</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" t="s">
         <v>176</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" t="s">
         <v>116</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>42807</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" t="s">
         <v>177</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" t="s">
         <v>420</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D178" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>42810</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" t="s">
         <v>178</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" t="s">
         <v>421</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="3">
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>42814</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" t="s">
         <v>179</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" t="s">
         <v>422</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="3">
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>42814</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" t="s">
         <v>180</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" t="s">
         <v>423</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="3">
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>42814</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" t="s">
         <v>181</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" t="s">
         <v>424</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="3">
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>42829</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" t="s">
         <v>182</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" t="s">
         <v>425</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="3">
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>42830</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" t="s">
         <v>183</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" t="s">
         <v>426</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="3">
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>42888</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" t="s">
         <v>184</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" t="s">
         <v>427</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D185" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="3">
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>42905</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" t="s">
         <v>4</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="3">
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>42905</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" t="s">
         <v>186</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" t="s">
         <v>18</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="3">
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>42905</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" t="s">
         <v>187</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" t="s">
         <v>428</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="3">
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>42905</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" t="s">
         <v>188</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" t="s">
         <v>33</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="3">
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>42942</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" t="s">
         <v>189</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" t="s">
         <v>92</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="3">
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>42942</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" t="s">
         <v>190</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" t="s">
         <v>429</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D191" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="3">
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>42942</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" t="s">
         <v>191</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" t="s">
         <v>430</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>42942</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" t="s">
         <v>192</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" t="s">
         <v>110</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D193" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="3">
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>42942</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" t="s">
         <v>193</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" t="s">
         <v>431</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="3">
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>42955</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" t="s">
         <v>194</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" t="s">
         <v>432</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D195" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="3">
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>42976</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" t="s">
         <v>195</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" t="s">
         <v>433</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D196" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="3">
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>42979</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" t="s">
         <v>196</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" t="s">
         <v>227</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D197" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="3">
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>42979</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" t="s">
         <v>197</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" t="s">
         <v>228</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D198" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="3">
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>42996</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" t="s">
         <v>198</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" t="s">
         <v>434</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="3">
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>43021</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" t="s">
         <v>199</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" t="s">
         <v>113</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="3">
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>43103</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" t="s">
         <v>200</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" t="s">
         <v>435</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="3">
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>43166</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" t="s">
         <v>201</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" t="s">
         <v>436</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="3">
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>43178</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" t="s">
         <v>202</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" t="s">
         <v>131</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D203" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="3">
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>43178</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" t="s">
         <v>203</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" t="s">
         <v>437</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D204" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="3">
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>43178</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" t="s">
         <v>204</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" t="s">
         <v>438</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D205" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="3">
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>43194</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" t="s">
         <v>205</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" t="s">
         <v>141</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D206" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="3">
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>43251</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" t="s">
         <v>206</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" t="s">
         <v>439</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D207" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="3">
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>43256</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" t="s">
         <v>207</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" t="s">
         <v>104</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D208" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="3">
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>43258</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" t="s">
         <v>208</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" t="s">
         <v>440</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" s="3">
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>43269</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" t="s">
         <v>209</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" t="s">
         <v>22</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="3">
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>43269</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" t="s">
         <v>210</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" t="s">
         <v>156</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="D211" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="3">
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>43271</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" t="s">
         <v>211</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" t="s">
         <v>441</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="D212" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" s="3">
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>43283</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" t="s">
         <v>212</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" t="s">
         <v>442</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="D213" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="3">
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>43340</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" t="s">
         <v>213</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" t="s">
         <v>95</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D214" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" s="3">
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>43357</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" t="s">
         <v>214</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" t="s">
         <v>443</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="D215" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="3">
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>43374</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" t="s">
         <v>215</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" t="s">
         <v>444</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="D216" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="3">
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>43383</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" t="s">
         <v>172</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D217" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="3">
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>43384</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" t="s">
         <v>216</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D218" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="3">
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>43409</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" t="s">
         <v>445</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D219" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" s="3">
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>43410</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" t="s">
         <v>217</v>
       </c>
-      <c r="D220" s="2" t="s">
+      <c r="D220" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="3">
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>43417</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" t="s">
         <v>218</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" t="s">
         <v>446</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="D221" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222" s="3">
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>43433</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" t="s">
         <v>447</v>
       </c>
-      <c r="D222" s="2" t="s">
+      <c r="D222" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" s="3">
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>43437</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" t="s">
         <v>219</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" t="s">
         <v>448</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="D223" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A224" s="3">
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>43437</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" t="s">
         <v>220</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="D224" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" s="3">
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>43437</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" t="s">
         <v>221</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" t="s">
         <v>449</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D225" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" s="3">
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>43455</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" t="s">
         <v>10</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="D226" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="3">
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>43458</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" t="s">
         <v>222</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="D227" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="3">
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>43467</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" t="s">
         <v>223</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" t="s">
         <v>450</v>
       </c>
-      <c r="D228" s="2" t="s">
+      <c r="D228" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="3">
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>43483</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" t="s">
         <v>224</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" t="s">
         <v>451</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="D229" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="3">
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>43509</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" t="s">
         <v>46</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="D230" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="3">
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>43511</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" t="s">
         <v>225</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="D231" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" s="3">
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>43523</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" t="s">
         <v>226</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" t="s">
         <v>452</v>
       </c>
-      <c r="D232" s="2" t="s">
+      <c r="D232" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233" s="3">
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>43557</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" t="s">
         <v>227</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" t="s">
         <v>194</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D233" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234" s="3">
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>43619</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" t="s">
         <v>228</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" t="s">
         <v>196</v>
       </c>
-      <c r="D234" s="2" t="s">
+      <c r="D234" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="3">
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>43619</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" t="s">
         <v>229</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" t="s">
         <v>453</v>
       </c>
-      <c r="D235" s="2" t="s">
+      <c r="D235" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="3">
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>43623</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" t="s">
         <v>454</v>
       </c>
-      <c r="D236" s="2" t="s">
+      <c r="D236" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="3">
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>43627</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" t="s">
         <v>230</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="D237" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="3">
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>43647</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" t="s">
         <v>231</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" t="s">
         <v>455</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="D238" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" s="3">
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>43661</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" t="s">
         <v>232</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" t="s">
         <v>456</v>
       </c>
-      <c r="D239" s="2" t="s">
+      <c r="D239" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A240" s="3">
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>43686</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" t="s">
         <v>233</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" t="s">
         <v>457</v>
       </c>
-      <c r="D240" s="2" t="s">
+      <c r="D240" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" s="3">
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>43686</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" t="s">
         <v>234</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" t="s">
         <v>152</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="D241" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" s="3">
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>43731</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" t="s">
         <v>235</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" t="s">
         <v>458</v>
       </c>
-      <c r="D242" s="2" t="s">
+      <c r="D242" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="3">
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>43734</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" t="s">
         <v>236</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" t="s">
         <v>459</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="D243" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" s="3">
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>43741</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" t="s">
         <v>237</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" t="s">
         <v>204</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="D244" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" s="3">
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>43790</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" t="s">
         <v>238</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" t="s">
         <v>460</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="D245" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="3">
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>43804</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" t="s">
         <v>239</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" t="s">
         <v>461</v>
       </c>
-      <c r="D246" s="2" t="s">
+      <c r="D246" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="3">
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>43808</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" t="s">
         <v>240</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" t="s">
         <v>462</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="D247" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="3">
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>43822</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" t="s">
         <v>241</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" t="s">
         <v>107</v>
       </c>
-      <c r="D248" s="2" t="s">
+      <c r="D248" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" s="3">
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>43822</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" t="s">
         <v>242</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" t="s">
         <v>62</v>
       </c>
-      <c r="D249" s="2" t="s">
+      <c r="D249" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" s="3">
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>43822</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" t="s">
         <v>243</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" t="s">
         <v>83</v>
       </c>
-      <c r="D250" s="2" t="s">
+      <c r="D250" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" s="3">
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>43858</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" t="s">
         <v>244</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" t="s">
         <v>214</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D251" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" s="3">
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>43893</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" t="s">
         <v>42</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" t="s">
         <v>106</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="D252" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" s="3">
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>43924</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" t="s">
         <v>245</v>
       </c>
-      <c r="D253" s="2" t="s">
+      <c r="D253" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" s="3">
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>43924</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" t="s">
         <v>246</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="D254" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" s="3">
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>43927</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" t="s">
         <v>463</v>
       </c>
-      <c r="D255" s="2" t="s">
+      <c r="D255" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" s="3">
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>43927</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" t="s">
         <v>464</v>
       </c>
-      <c r="D256" s="2" t="s">
+      <c r="D256" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" s="3">
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>43963</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" t="s">
         <v>247</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C257" t="s">
         <v>93</v>
       </c>
-      <c r="D257" s="2" t="s">
+      <c r="D257" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" s="3">
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>43963</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" t="s">
         <v>248</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" t="s">
         <v>384</v>
       </c>
-      <c r="D258" s="2" t="s">
+      <c r="D258" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" s="3">
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>43973</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" t="s">
         <v>249</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" t="s">
         <v>36</v>
       </c>
-      <c r="D259" s="2" t="s">
+      <c r="D259" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260" s="3">
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>44004</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" t="s">
         <v>250</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" t="s">
         <v>96</v>
       </c>
-      <c r="D260" s="2" t="s">
+      <c r="D260" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" s="3">
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>44004</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" t="s">
         <v>251</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" t="s">
         <v>465</v>
       </c>
-      <c r="D261" s="2" t="s">
+      <c r="D261" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B262" t="s">
+        <v>252</v>
+      </c>
+      <c r="C262" t="s">
+        <v>466</v>
+      </c>
+      <c r="D262" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B263" t="s">
+        <v>253</v>
+      </c>
+      <c r="C263" t="s">
+        <v>467</v>
+      </c>
+      <c r="D263" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B264" t="s">
+        <v>254</v>
+      </c>
+      <c r="C264" t="s">
+        <v>169</v>
+      </c>
+      <c r="D264" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B265" t="s">
+        <v>255</v>
+      </c>
+      <c r="C265" t="s">
+        <v>468</v>
+      </c>
+      <c r="D265" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B266" t="s">
+        <v>256</v>
+      </c>
+      <c r="C266" t="s">
+        <v>469</v>
+      </c>
+      <c r="D266" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B267" t="s">
+        <v>257</v>
+      </c>
+      <c r="D267" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
+        <v>44116</v>
+      </c>
+      <c r="C268" t="s">
+        <v>470</v>
+      </c>
+      <c r="D268" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B269" t="s">
+        <v>258</v>
+      </c>
+      <c r="C269" t="s">
+        <v>471</v>
+      </c>
+      <c r="D269" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B270" t="s">
+        <v>259</v>
+      </c>
+      <c r="C270" t="s">
+        <v>472</v>
+      </c>
+      <c r="D270" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B271" t="s">
+        <v>260</v>
+      </c>
+      <c r="C271" t="s">
+        <v>147</v>
+      </c>
+      <c r="D271" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
+        <v>44239</v>
+      </c>
+      <c r="B272" t="s">
+        <v>261</v>
+      </c>
+      <c r="C272" t="s">
+        <v>473</v>
+      </c>
+      <c r="D272" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B273" t="s">
+        <v>262</v>
+      </c>
+      <c r="C273" t="s">
+        <v>474</v>
+      </c>
+      <c r="D273" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B274" t="s">
+        <v>263</v>
+      </c>
+      <c r="C274" t="s">
+        <v>121</v>
+      </c>
+      <c r="D274" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B275" t="s">
+        <v>264</v>
+      </c>
+      <c r="C275" t="s">
+        <v>475</v>
+      </c>
+      <c r="D275" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B276" t="s">
+        <v>265</v>
+      </c>
+      <c r="C276" t="s">
+        <v>257</v>
+      </c>
+      <c r="D276" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
+        <v>44306</v>
+      </c>
+      <c r="B277" t="s">
+        <v>266</v>
+      </c>
+      <c r="C277" t="s">
+        <v>476</v>
+      </c>
+      <c r="D277" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
+        <v>44327</v>
+      </c>
+      <c r="C278" t="s">
+        <v>477</v>
+      </c>
+      <c r="D278" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
+        <v>44330</v>
+      </c>
+      <c r="B279" t="s">
+        <v>267</v>
+      </c>
+      <c r="D279" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B280" t="s">
+        <v>268</v>
+      </c>
+      <c r="D280" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
+        <v>44351</v>
+      </c>
+      <c r="C281" t="s">
+        <v>210</v>
+      </c>
+      <c r="D281" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B282" t="s">
+        <v>269</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
+        <v>44434</v>
+      </c>
+      <c r="C283" t="s">
+        <v>220</v>
+      </c>
+      <c r="D283" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B284" t="s">
+        <v>270</v>
+      </c>
+      <c r="D284" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
+        <v>44456</v>
+      </c>
+      <c r="C285" t="s">
+        <v>478</v>
+      </c>
+      <c r="D285" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
+        <v>44456</v>
+      </c>
+      <c r="C286" t="s">
+        <v>479</v>
+      </c>
+      <c r="D286" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
+        <v>44456</v>
+      </c>
+      <c r="C287" t="s">
+        <v>60</v>
+      </c>
+      <c r="D287" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B288" t="s">
+        <v>271</v>
+      </c>
+      <c r="D288" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B289" t="s">
+        <v>272</v>
+      </c>
+      <c r="D289" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B290" t="s">
+        <v>273</v>
+      </c>
+      <c r="D290" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
+        <v>44544</v>
+      </c>
+      <c r="C291" t="s">
+        <v>84</v>
+      </c>
+      <c r="D291" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B292" t="s">
+        <v>274</v>
+      </c>
+      <c r="D292" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
+        <v>44550</v>
+      </c>
+      <c r="C293" t="s">
+        <v>480</v>
+      </c>
+      <c r="D293" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
+        <v>44550</v>
+      </c>
+      <c r="C294" t="s">
+        <v>122</v>
+      </c>
+      <c r="D294" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
+        <v>44550</v>
+      </c>
+      <c r="C295" t="s">
+        <v>481</v>
+      </c>
+      <c r="D295" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
+        <v>44550</v>
+      </c>
+      <c r="B296" t="s">
+        <v>275</v>
+      </c>
+      <c r="D296" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
+        <v>44550</v>
+      </c>
+      <c r="B297" t="s">
+        <v>276</v>
+      </c>
+      <c r="D297" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
+        <v>44550</v>
+      </c>
+      <c r="B298" t="s">
+        <v>277</v>
+      </c>
+      <c r="D298" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
+        <v>44595</v>
+      </c>
+      <c r="B299" t="s">
+        <v>278</v>
+      </c>
+      <c r="C299" t="s">
+        <v>482</v>
+      </c>
+      <c r="D299" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
+        <v>44607</v>
+      </c>
+      <c r="B300" t="s">
+        <v>279</v>
+      </c>
+      <c r="C300" t="s">
+        <v>483</v>
+      </c>
+      <c r="D300" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B301" t="s">
+        <v>280</v>
+      </c>
+      <c r="C301" t="s">
+        <v>184</v>
+      </c>
+      <c r="D301" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B302" t="s">
+        <v>281</v>
+      </c>
+      <c r="C302" t="s">
+        <v>484</v>
+      </c>
+      <c r="D302" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
+        <v>44658</v>
+      </c>
+      <c r="C303" t="s">
+        <v>485</v>
+      </c>
+      <c r="D303" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
+        <v>44658</v>
+      </c>
+      <c r="C304" t="s">
+        <v>109</v>
+      </c>
+      <c r="D304" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B305" t="s">
+        <v>282</v>
+      </c>
+      <c r="D305" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1">
+        <v>44720</v>
+      </c>
+      <c r="B306" t="s">
+        <v>283</v>
+      </c>
+      <c r="C306" t="s">
+        <v>37</v>
+      </c>
+      <c r="D306" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B307" t="s">
+        <v>284</v>
+      </c>
+      <c r="C307" t="s">
+        <v>153</v>
+      </c>
+      <c r="D307" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1">
+        <v>44733</v>
+      </c>
+      <c r="C308" t="s">
+        <v>103</v>
+      </c>
+      <c r="D308" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" s="3">
-        <v>44004</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D262" s="2" t="s">
+    <row r="309" spans="1:4">
+      <c r="A309" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B309" t="s">
+        <v>285</v>
+      </c>
+      <c r="C309" t="s">
+        <v>201</v>
+      </c>
+      <c r="D309" t="s">
         <v>792</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" s="3">
-        <v>44095</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" s="3">
-        <v>44095</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="3">
-        <v>44095</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266" s="3">
-        <v>44111</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="3">
-        <v>44113</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" s="3">
-        <v>44116</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="3">
-        <v>44186</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" s="3">
-        <v>44203</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" s="3">
-        <v>44217</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" s="3">
-        <v>44239</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" s="3">
-        <v>44277</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" s="3">
-        <v>44277</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="3">
-        <v>44277</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" s="3">
-        <v>44277</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="3">
-        <v>44306</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="3">
-        <v>44327</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="3">
-        <v>44330</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" s="3">
-        <v>44350</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" s="3">
-        <v>44351</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" s="3">
-        <v>44398</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="3">
-        <v>44434</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="3">
-        <v>44438</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" s="3">
-        <v>44456</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286" s="3">
-        <v>44456</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="3">
-        <v>44456</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" s="3">
-        <v>44459</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289" s="3">
-        <v>44459</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" s="3">
-        <v>44459</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" s="3">
-        <v>44544</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" s="3">
-        <v>44544</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="3">
-        <v>44550</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294" s="3">
-        <v>44550</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295" s="3">
-        <v>44550</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296" s="3">
-        <v>44550</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297" s="3">
-        <v>44550</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298" s="3">
-        <v>44550</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299" s="3">
-        <v>44595</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300" s="3">
-        <v>44607</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="3">
-        <v>44622</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302" s="3">
-        <v>44655</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" s="3">
-        <v>44658</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304" s="3">
-        <v>44658</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305" s="3">
-        <v>44658</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A306" s="3">
-        <v>44720</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A307" s="3">
-        <v>44733</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A308" s="3">
-        <v>44733</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309" s="3">
-        <v>44733</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>790</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/lib/^HIST.xlsx
+++ b/data/lib/^HIST.xlsx
@@ -1474,925 +1474,925 @@
     <t>DISCA</t>
   </si>
   <si>
-    <t>A,AA,AAPL,ABC,ABS,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BS,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCK,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLK,GLW,GNW,GOOG,GPC,GPS,GR,GRA,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JEF,JNJ,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QTRN,R,RAD,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABS,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BS,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCK,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLK,GLW,GNW,GOOG,GPC,GPS,GR,GRA,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QTRN,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABK,ABS,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLK,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QTRN,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBL,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABK,ABS,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BS,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLK,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QTRN,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBL,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABK,ABS,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BS,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLK,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QTRN,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABK,ABS,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BS,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLK,GLW,GNW,GOOG,GPC,GPS,GR,GRA,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QTRN,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABK,ABS,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLK,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBL,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABK,ABS,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBL,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBL,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFX,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LXK,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LXK,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DD,DE,DELL,DF,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DD,DE,DELL,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DD,DE,DELL,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DD,DE,DELL,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DD,DE,DELL,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DD,DE,DELL,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DELL,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DELL,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DELL,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMS,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UDR,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UDR,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UDR,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UDR,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GME,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TE,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COP,COST,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HOT,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LM,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLTC,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FSLR,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTR,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SWN,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DNB,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGNA,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RAI,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RAI,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RAI,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDC,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANSS,ANTM,AON,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RIG,RJF,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BCR,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNI,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHK,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSRA,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIG,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NAVI,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AYI,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TWX,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DPS,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANDV,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVHC,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRCL,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COL,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESRX,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCG,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PCG,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GT,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BHF,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DWDP,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLL,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RHT,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FL,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APC,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JEF,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NKTR,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CELG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STI,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAC,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMG,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TRIP,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WCG,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEC,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTN,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AGN,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,M,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRI,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HP,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,JWN,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOG,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,COTY,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETFC,ETN,ETR,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NBL,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIV,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TIF,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CXO,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTI,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VNT,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLS,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SLG,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VAR,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XRX,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HFC,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,ALXN,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,MXIM,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNM,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOV,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRGO,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSU,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEG,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HBI,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WU,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GPS,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XLNX,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INFO,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PBCT,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCK,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CERN,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WBD,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UA,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VICI,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WBD,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KDP,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UAA,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VICI,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WBD,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IPGP,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KDP,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VICI,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WBD,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
-  </si>
-  <si>
-    <t>A,AAL,AAP,AAPL,ABBV,ABC,ABMD,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AFL,AIG,AIZ,AJG,AKAM,ALB,ALGN,ALK,ALL,ALLE,AMAT,AMCR,AMD,AME,AMGN,AMP,AMT,AMZN,ANET,ANSS,ANTM,AON,AOS,APA,APD,APH,APTV,ARE,ATO,ATVI,AVB,AVGO,AVY,AWK,AXP,AZO,BA,BAC,BAX,BBWI,BBY,BDX,BEN,BF-B,BIIB,BIO,BK,BKNG,BKR,BLK,BLL,BMY,BR,BRK-B,BRO,BSX,BWA,BXP,C,CAG,CAH,CARR,CAT,CB,CBOE,CBRE,CCI,CCL,CDAY,CDNS,CDW,CE,CEG,CF,CFG,CHD,CHRW,CHTR,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNC,CNP,COF,COO,COP,COST,CPB,CPRT,CPT,CRL,CRM,CSCO,CSX,CTAS,CTLT,CTRA,CTSH,CTVA,CTXS,CVS,CVX,CZR,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISH,DLR,DLTR,DOV,DOW,DPZ,DRE,DRI,DTE,DUK,DVA,DVN,DXC,DXCM,EA,EBAY,ECL,ED,EFX,EIX,EL,EMN,EMR,ENPH,EOG,EPAM,EQIX,EQR,ES,ESS,ETN,ETR,ETSY,EVRG,EW,EXC,EXPD,EXPE,EXR,F,FANG,FAST,FBHS,FCX,FDS,FDX,FE,FFIV,FIS,FISV,FITB,FLT,FMC,FOX,FOXA,FRC,FRT,FTNT,FTV,GD,GE,GILD,GIS,GL,GLW,GM,GNRC,GOOG,GOOGL,GPC,GPN,GRMN,GS,GWW,HAL,HAS,HBAN,HCA,HD,HES,HIG,HII,HLT,HOLX,HON,HPE,HPQ,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IDXX,IEX,IFF,ILMN,INCY,INTC,INTU,IP,IPG,IQV,IR,IRM,ISRG,IT,ITW,IVZ,J,JBHT,JCI,JKHY,JNJ,JNPR,JPM,K,KDP,KEY,KEYS,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,L,LDOS,LEN,LH,LHX,LIN,LKQ,LLY,LMT,LNC,LNT,LOW,LRCX,LUMN,LUV,LVS,LW,LYB,LYV,MA,MAA,MAR,MAS,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MGM,MHK,MKC,MKTX,MLM,MMC,MMM,MNST,MO,MOH,MOS,MPC,MPWR,MRK,MRNA,MRO,MS,MSCI,MSFT,MSI,MTB,MTCH,MTD,MU,NCLH,NDAQ,NDSN,NEE,NEM,NFLX,NI,NKE,NLOK,NLSN,NOC,NOW,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVR,NWL,NWS,NWSA,NXPI,O,ODFL,OGN,OKE,OMC,ON,ORCL,ORLY,OTIS,OXY,PARA,PAYC,PAYX,PCAR,PEAK,PEG,PENN,PEP,PFE,PFG,PG,PGR,PH,PHM,PKG,PKI,PLD,PM,PNC,PNR,PNW,POOL,PPG,PPL,PRU,PSA,PSX,PTC,PVH,PWR,PXD,PYPL,QCOM,QRVO,RCL,RE,REG,REGN,RF,RHI,RJF,RL,RMD,ROK,ROL,ROP,ROST,RSG,RTX,SBAC,SBNY,SBUX,SCHW,SEDG,SEE,SHW,SIVB,SJM,SLB,SNA,SNPS,SO,SPG,SPGI,SRE,STE,STT,STX,STZ,SWK,SWKS,SYF,SYK,SYY,T,TAP,TDG,TDY,TECH,TEL,TER,TFC,TFX,TGT,TJX,TMO,TMUS,TPR,TRMB,TROW,TRV,TSCO,TSLA,TSN,TT,TTWO,TWTR,TXN,TXT,TYL,UAL,UDR,UHS,ULTA,UNH,UNP,UPS,URI,USB,V,VFC,VICI,VLO,VMC,VNO,VRSK,VRSN,VRTX,VTR,VTRS,VZ,WAB,WAT,WBA,WBD,WDC,WEC,WELL,WFC,WHR,WM,WMB,WMT,WRB,WRK,WST,WTW,WY,WYNN,XEL,XOM,XRAY,XYL,YUM,ZBH,ZBRA,ZION,ZTS</t>
+    <t>A,AA,AAPL,ABC,ABS,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BS,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCK,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLK,GLW,GNW,GOOG,GPC,GPS,GR,GRA,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JEF,JNJ,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QTRN,R,RAD,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABS,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BS,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCK,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLK,GLW,GNW,GOOG,GPC,GPS,GR,GRA,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QTRN,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABK,ABS,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLK,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QTRN,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBL,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABK,ABS,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BS,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLK,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QTRN,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBL,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABK,ABS,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BS,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLK,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QTRN,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABK,ABS,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BS,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLK,GLW,GNW,GOOG,GPC,GPS,GR,GRA,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QTRN,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABK,ABS,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLK,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBL,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABK,ABS,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBL,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBL,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSG,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSE,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDC,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,MXIM,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NCR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,F,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SLR,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AV,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DJ,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TRB,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABK,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FNM,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRE,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEH,LEN,LH,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WB,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JNY,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACAS,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SGP,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVG,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CIEN,CINF,CL,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,DYN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KBH,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,RX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BJS,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XTO,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STR,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MIL,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SII,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PTV,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYT,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AYE,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EK,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JPM,JWN,K,KEY,KG,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFX,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,ODP,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MFE,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,Q,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GENZ,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NOVL,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MEE,MET,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RSH,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MI,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NSM,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CEPH,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITT,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCL,CEG,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JNS,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WFR,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,AKS,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,MWW,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TLAB,TMO,TPR,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPWR,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCL,CEG,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MHS,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SVU,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EP,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMI,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NVLS,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLE,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGN,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GR,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LXK,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHLD,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DV,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LXK,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANR,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LXK,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SUN,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBE,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RRD,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIE,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FII,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIG,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PCS,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVH,CVS,CVX,D,DD,DE,DELL,DF,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DD,DE,DELL,DF,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DD,DE,DELL,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HNZ,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DD,DE,DELL,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FHN,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APOL,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DD,DE,DELL,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DD,DE,DELL,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,S,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMC,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DD,DE,DELL,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DELL,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SAI,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DELL,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AMD,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DELL,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,NYX,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JCP,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MOLX,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TER,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANF,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JDSU,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIFE,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WPX,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLF,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLM,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEAM,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LSI,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,IGT,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FRX,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,X,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RDC,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GHC,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BTU,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBL,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMS,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,COV,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PETM,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWN,SWY,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CFN,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVP,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DNR,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NBR,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WIN,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LO,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QEP,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEG,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KIM,KLAC,KMB,KMI,KMX,KO,KR,KRFT,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDO,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NE,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DTV,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PLL,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HSP,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CMCSK,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RAI,RCL,REGN,RF,RHI,RHT,RIG,RL,ROK,ROP,ROST,RRC,RSG,RTN,RTX,SBUX,SCG,SCHW,SE,SEE,SHW,SIAL,SIG,SJM,SLB,SLG,SNA,SNDK,SNI,SO,SPG,SPGI,SPLS,SRCL,SRE,STI,STJ,STT,STX,STZ,SWK,SWKS,SWN,SYK,SYY,T,TAP,TDC,TE,TEL,TFC,TGNA,TGT,THC,TIF,TJX,TMO,TPR,TRIP,TROW,TRV,TSCO,TSN,TSS,TT,TWC,TWX,TXN,TXT,UAA,UAL,UHS,UNH,UNM,UNP,UPS,URBN,URI,USB,V,VAR,VFC,VIAB,VLO,VMC,VNO,VRSN,VRTX,VTR,VTRS,VZ,WAT,WBA,WDC,WEC,WELL,WFC,WFM,WHR,WM,WMB,WMT,WRK,WU,WY,WYN,WYNN,XEC,XEL,XL,XLNX,XOM,XRAY,XRX,XYL,YHOO,YUM,ZBH,ZION,ZTS</t>
+  </si>
+  <si>
+    <t>A,AA,AAL,AAP,AAPL,ABBV,ABC,ABT,ACN,ADBE,ADI,ADM,ADP,ADS,ADSK,ADT,AEE,AEP,AES,AET,AFL,AGN,AIG,AIV,AIZ,AKAM,ALL,ALLE,ALTR,ALXN,AMAT,AME,AMG,AMGN,AMP,AMT,AMZN,AN,ANDV,ANTM,AON,APA,APC,APD,APH,APTV,ARG,ATVI,AVB,AVGO,AVY,AXP,AZO,BA,BAC,BALL,BAX,BBBY,BBWI,BBY,BCR,BDX,BEN,BF-B,BIIB,BK,BKNG,BKR,BLK,BMY,BRCM,BRK-B,BSX,BWA,BXLT,BXP,C,CA,CAG,CAH,CAM,CAT,CB,CB,CBRE,CCE,CCI,CCL,CELG,CERN,CF,CHK,CHRW,CI,CINF,CL,CLX,CMA,CMCSA,CME,CMG,CMI,CMS,CNP,CNX,COF,COL,COP,COST,CPB,CPGX,CPRI,CRM,CSC,CSCO,CSX,CTAS,CTRA,CTSH,CTXS,CVC,CVS,CVX,D,DAL,DD,DE,DFS,DG,DGX,DHI,DHR,DIS,DISCA,DISCK,DLTR,DNB,DO,DOV,DOW,DPS,DRI,DTE,DUK,DVA,DVN,EA,EBAY,ECL,ED,EFX,EIX,EL,EMC,EMN,EMR,ENDP,EOG,EQIX,EQR,EQT,ES,ESRX,ESS,ESV,ETFC,ETN,ETR,EW,EXC,EXPD,EXPE,F,FAST,FCX,FDX,FE,FFIV,FIS,FISV,FITB,FLIR,FLR,FLS,FMC,FOSL,FOX,FOXA,FSLR,FTI,FTR,GAS,GD,GE,GGP,GILD,GIS,GL,GLW,GM,GMCR,GME,GNW,GOOG,GOOGL,GPC,GPS,GRMN,GS,GT,GWW,HAL,HAR,HAS,HBAN,HBI,HCA,HCBK,HD,HES,HIG,HOG,HON,HOT,HP,HPQ,HRB,HRL,HSIC,HST,HSY,HUM,HWM,IBM,ICE,IFF,INTC,INTU,IP,IPG,IRM,ISRG,ITW,IVZ,J,JBHT,JCI,JCI,JEF,JNJ,JNPR,JOY,JPM,JWN,K,KEY,KHC,KIM,KLAC,KMB,KMI,KMX,KO,KR,KSS,KSU,L,LEG,LEN,LH,LHX,LIN,LLL,LLTC,LLY,LM,LMT,LNC,LOW,LRCX,LUMN,LUV,LVLT,LYB,M,MA,MAC,MAR,MAS,MAT,MCD,MCHP,MCK,MCO,MDLZ,MDT,MET,META,MHK,MJN,MKC,MLM,MMC,MMM,MNK,MNST,MO,MON,MOS,MPC,MRK,MRO,MS,MSFT,MSI,MTB,MU,MUR,NAVI,NBL,NDAQ,NEE,NEM,NFLX,NFX,NI,NKE,NLOK,NLSN,NOC,NOV,NRG,NSC,NTAP,NTRS,NUE,NVDA,NWL,NWS,NWSA,O,OI,OKE,OMC,ORCL,ORLY,OXY,PARA,PAYX,PBCT,PBI,PCAR,PCG,PCL,PCP,PDCO,PEAK,PEG,PEP,PFE,PFG,PG,PGR,PH,PHM,PKI,PLD,PM,PNC,PNR,PNW,POM,PPG,PPL,PRGO,PRU,PSA,PSX,PVH,PWR,PXD,PYPL,QCOM,QRVO,R,RA